--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample13/Sample-13.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample13/Sample-13.xlsx
@@ -229,20 +229,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="xv30op1l" xfId="1"/>
-    <cellStyle name="xv30op1l_Alternate" xfId="2"/>
-    <cellStyle name="ne5drgc2" xfId="3"/>
-    <cellStyle name="ne5drgc2_Alternate" xfId="4"/>
-    <cellStyle name="cm5n0xzu" xfId="5"/>
-    <cellStyle name="cm5n0xzu_Alternate" xfId="6"/>
-    <cellStyle name="acqn0c3g" xfId="7"/>
-    <cellStyle name="acqn0c3g_Alternate" xfId="8"/>
-    <cellStyle name="crct0k5v" xfId="9"/>
-    <cellStyle name="crct0k5v_Alternate" xfId="10"/>
-    <cellStyle name="eeingpli" xfId="11"/>
-    <cellStyle name="eeingpli_Alternate" xfId="12"/>
-    <cellStyle name="d3kdpame" xfId="13"/>
-    <cellStyle name="d3kdpame_Alternate" xfId="14"/>
+    <cellStyle name="ext0akh0" xfId="1"/>
+    <cellStyle name="ext0akh0_Alternate" xfId="2"/>
+    <cellStyle name="kmyskj2s" xfId="3"/>
+    <cellStyle name="kmyskj2s_Alternate" xfId="4"/>
+    <cellStyle name="5mz534my" xfId="5"/>
+    <cellStyle name="5mz534my_Alternate" xfId="6"/>
+    <cellStyle name="hkktvesd" xfId="7"/>
+    <cellStyle name="hkktvesd_Alternate" xfId="8"/>
+    <cellStyle name="a3s5dcrt" xfId="9"/>
+    <cellStyle name="a3s5dcrt_Alternate" xfId="10"/>
+    <cellStyle name="botngq4r" xfId="11"/>
+    <cellStyle name="botngq4r_Alternate" xfId="12"/>
+    <cellStyle name="ngkzjbqm" xfId="13"/>
+    <cellStyle name="ngkzjbqm_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample13/Sample-13.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample13/Sample-13.xlsx
@@ -106,9 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0;[Black]\-#,##0.0"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -151,10 +149,10 @@
     <xf numFmtId="49" fontId="1" fillId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0">
+    <xf numFmtId="49" fontId="1" fillId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0">
+    <xf numFmtId="49" fontId="1" fillId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0">
@@ -196,10 +194,10 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="5" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="5" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="6" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="6" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="7" applyProtection="1" applyAlignment="1">
@@ -229,20 +227,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ext0akh0" xfId="1"/>
-    <cellStyle name="ext0akh0_Alternate" xfId="2"/>
-    <cellStyle name="kmyskj2s" xfId="3"/>
-    <cellStyle name="kmyskj2s_Alternate" xfId="4"/>
-    <cellStyle name="5mz534my" xfId="5"/>
-    <cellStyle name="5mz534my_Alternate" xfId="6"/>
-    <cellStyle name="hkktvesd" xfId="7"/>
-    <cellStyle name="hkktvesd_Alternate" xfId="8"/>
-    <cellStyle name="a3s5dcrt" xfId="9"/>
-    <cellStyle name="a3s5dcrt_Alternate" xfId="10"/>
-    <cellStyle name="botngq4r" xfId="11"/>
-    <cellStyle name="botngq4r_Alternate" xfId="12"/>
-    <cellStyle name="ngkzjbqm" xfId="13"/>
-    <cellStyle name="ngkzjbqm_Alternate" xfId="14"/>
+    <cellStyle name="v0g2kbmv" xfId="1"/>
+    <cellStyle name="v0g2kbmv_Alternate" xfId="2"/>
+    <cellStyle name="rro20ffx" xfId="3"/>
+    <cellStyle name="rro20ffx_Alternate" xfId="4"/>
+    <cellStyle name="u5urjgs2" xfId="5"/>
+    <cellStyle name="u5urjgs2_Alternate" xfId="6"/>
+    <cellStyle name="ca0fpl4b" xfId="7"/>
+    <cellStyle name="ca0fpl4b_Alternate" xfId="8"/>
+    <cellStyle name="35mavhha" xfId="9"/>
+    <cellStyle name="35mavhha_Alternate" xfId="10"/>
+    <cellStyle name="vb4xgusj" xfId="11"/>
+    <cellStyle name="vb4xgusj_Alternate" xfId="12"/>
+    <cellStyle name="33ddu2cq" xfId="13"/>
+    <cellStyle name="33ddu2cq_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
